--- a/output/aggregate_tables/Analysis Group Statistics/Area 71_summary.xlsx
+++ b/output/aggregate_tables/Analysis Group Statistics/Area 71_summary.xlsx
@@ -22,7 +22,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <name val="Calibri"/>
@@ -156,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -179,6 +181,7 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1529,17 +1532,39 @@
       <c r="M4" s="4" t="n">
         <v>47.14828897338403</v>
       </c>
-      <c r="N4" s="4" t="n"/>
-      <c r="O4" s="4" t="n"/>
-      <c r="P4" s="4" t="n"/>
-      <c r="Q4" s="4" t="n"/>
-      <c r="R4" s="4" t="n"/>
-      <c r="S4" s="4" t="n"/>
-      <c r="T4" s="4" t="n"/>
-      <c r="U4" s="4" t="n"/>
-      <c r="V4" s="4" t="n"/>
-      <c r="W4" s="4" t="n"/>
-      <c r="X4" s="4" t="n"/>
+      <c r="N4" s="3" t="n">
+        <v>46</v>
+      </c>
+      <c r="O4" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="R4" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>10.8695652173913</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>54.34782608695652</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>34.78260869565217</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>65.21739130434783</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>34.78260869565217</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1658,34 +1683,34 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.262848417202907</v>
+        <v>1.00652246017215</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.367510892269368</v>
+        <v>1.035748686854183</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>2.974676500527725</v>
+        <v>2.500811126255161</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.630359309472275</v>
+        <v>2.042271147026333</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.974676500527725</v>
+        <v>2.500811126255161</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>22.53060390711235</v>
+        <v>22.15505684525351</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>24.39789750905031</v>
+        <v>22.79836957709453</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>53.07149858383732</v>
+        <v>55.04657357765197</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>46.92850141616267</v>
+        <v>44.95342642234804</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>53.07149858383732</v>
+        <v>55.04657357765197</v>
       </c>
     </row>
   </sheetData>
@@ -1803,34 +1828,34 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.3704637197101449</v>
+        <v>0.2085156415687696</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.1596012160869565</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0.1228669430434783</v>
+        <v>0.1313350955486036</v>
+      </c>
+      <c r="D4" s="12" t="n">
+        <v>0.03224805215327143</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.5300649357971013</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>0.1228669430434783</v>
+        <v>0.3398507371173731</v>
+      </c>
+      <c r="F4" s="12" t="n">
+        <v>0.03224805215327143</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>56.73849473669176</v>
+        <v>56.03771030200976</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>24.44377756074074</v>
+        <v>35.29575997977181</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>18.81772770256751</v>
+        <v>8.666529718218442</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>81.18227229743249</v>
+        <v>91.33347028178156</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>18.81772770256751</v>
+        <v>8.666529718218442</v>
       </c>
     </row>
     <row r="5">
@@ -1838,34 +1863,34 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.3145792090118578</v>
+        <v>0.3072579140118577</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.2281272627272727</v>
+        <v>0.2343220774715504</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.217546483520499</v>
+        <v>1.199759542264612</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.5427064717391304</v>
+        <v>0.5415799914834082</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.217546483520499</v>
+        <v>1.199759542264612</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>17.8712501559447</v>
+        <v>17.64491691924795</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>12.95991363318717</v>
+        <v>13.45642667212642</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>69.16883621086815</v>
+        <v>68.89865640862564</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>30.83116378913187</v>
+        <v>31.10134359137437</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>69.16883621086815</v>
+        <v>68.89865640862564</v>
       </c>
     </row>
     <row r="6">
@@ -1873,34 +1898,34 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.577805488480904</v>
+        <v>0.4907489045915228</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.9797824134551391</v>
+        <v>0.6700915138340287</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1.634263073963748</v>
+        <v>1.268803531837277</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>1.557587901936043</v>
+        <v>1.160840418425551</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>1.634263073963748</v>
+        <v>1.268803531837277</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>18.10252085212152</v>
+        <v>20.19838769126792</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>30.69637087862274</v>
+        <v>27.57982352770417</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>51.20110826925575</v>
+        <v>52.22178878102791</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>48.79889173074426</v>
+        <v>47.77821121897209</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>51.20110826925575</v>
+        <v>52.22178878102791</v>
       </c>
     </row>
     <row r="7">
@@ -1910,34 +1935,34 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>1.262848417202907</v>
+        <v>1.00652246017215</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>1.367510892269368</v>
+        <v>1.035748686854183</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>2.974676500527726</v>
+        <v>2.500811126255161</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>2.630359309472275</v>
+        <v>2.042271147026332</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>2.974676500527726</v>
+        <v>2.500811126255161</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>22.53060390711235</v>
+        <v>22.15505684525351</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>24.39789750905031</v>
+        <v>22.79836957709453</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>53.07149858383733</v>
+        <v>55.04657357765197</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>46.92850141616267</v>
+        <v>44.95342642234804</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>53.07149858383733</v>
+        <v>55.04657357765197</v>
       </c>
     </row>
   </sheetData>
@@ -2057,19 +2082,19 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>22.53060390711235</v>
+        <v>22.15505684525351</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>24.39789750905031</v>
+        <v>22.79836957709453</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>53.07149858383732</v>
+        <v>55.04657357765197</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>46.92850141616267</v>
+        <v>44.95342642234804</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>53.07149858383732</v>
+        <v>55.04657357765197</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>14.49764598505068</v>

--- a/output/aggregate_tables/Analysis Group Statistics/Area 71_summary.xlsx
+++ b/output/aggregate_tables/Analysis Group Statistics/Area 71_summary.xlsx
@@ -2097,19 +2097,19 @@
         <v>55.04657357765197</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>14.49764598505068</v>
+        <v>13.5577799139534</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>46.91928576211414</v>
+        <v>50.36044872010347</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>38.58306825283518</v>
+        <v>36.08177136594313</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>61.41693174716482</v>
+        <v>63.91822863405687</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>38.58306825283518</v>
+        <v>36.08177136594313</v>
       </c>
     </row>
   </sheetData>
